--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25000" windowHeight="10000"/>
+    <workbookView xWindow="7800" yWindow="3180" windowWidth="25000" windowHeight="10000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet sheetId="1" name="Sheet 1" state="visible" r:id="rId4"/>
@@ -15,14 +15,50 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="30">
-  <si>
-    <t>Name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
+  <si>
+    <t>IMEI</t>
+  </si>
+  <si>
+    <t>LAT</t>
+  </si>
+  <si>
+    <t>LONG</t>
   </si>
   <si>
     <t>Time</t>
   </si>
   <si>
+    <t>353400090208922</t>
+  </si>
+  <si>
+    <t>N22°17'30.70183</t>
+  </si>
+  <si>
+    <t>E73°7'46.01388</t>
+  </si>
+  <si>
+    <t>18:54:57</t>
+  </si>
+  <si>
+    <t>18:55:04</t>
+  </si>
+  <si>
+    <t>867520041906131</t>
+  </si>
+  <si>
+    <t>N22°17'30.45343</t>
+  </si>
+  <si>
+    <t>E73°7'46.30008</t>
+  </si>
+  <si>
+    <t>19:17:42</t>
+  </si>
+  <si>
+    <t>19:17:51</t>
+  </si>
+  <si>
     <t>Host</t>
   </si>
   <si>
@@ -35,12 +71,6 @@
     <t>keep-alive</t>
   </si>
   <si>
-    <t>Cache-Control</t>
-  </si>
-  <si>
-    <t>max-age=0</t>
-  </si>
-  <si>
     <t>Upgrade-Insecure-Requests</t>
   </si>
   <si>
@@ -71,40 +101,28 @@
     <t>Accept-Language</t>
   </si>
   <si>
+    <t>en-IN,en;q=0.9</t>
+  </si>
+  <si>
+    <t>192.168.43.47:8081</t>
+  </si>
+  <si>
+    <t>Mozilla/5.0 (Linux; Android 9; ONEPLUS A6000) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/74.0.3729.136 Mobile Safari/537.36</t>
+  </si>
+  <si>
+    <t>gzip, deflate</t>
+  </si>
+  <si>
     <t>en-IN,en-US;q=0.9,en;q=0.8</t>
   </si>
   <si>
-    <t>If-None-Match</t>
-  </si>
-  <si>
-    <t>W/"b-Ck1VqNd45QIvq3AZd8XYQLvEhtA"</t>
-  </si>
-  <si>
-    <t>192.168.43.47:8081</t>
-  </si>
-  <si>
-    <t>Save-Data</t>
-  </si>
-  <si>
-    <t>on</t>
-  </si>
-  <si>
-    <t>Mozilla/5.0 (Linux; Android 9; Nokia 7 plus) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/73.0.3683.90 Mobile Safari/537.36</t>
-  </si>
-  <si>
-    <t>gzip, deflate</t>
-  </si>
-  <si>
-    <t>en-US,en-IN;q=0.9,en;q=0.8</t>
-  </si>
-  <si>
-    <t>Keep-Alive</t>
-  </si>
-  <si>
-    <t>gzip</t>
-  </si>
-  <si>
-    <t>okhttp/3.12.1</t>
+    <t>18:54:59</t>
+  </si>
+  <si>
+    <t>18:55:06</t>
+  </si>
+  <si>
+    <t>19:17:47</t>
   </si>
 </sst>
 </file>
@@ -481,420 +499,182 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="V3" sqref="V3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="I2" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="K2" t="s">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="L2" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="M2" t="s">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="N2" t="s">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="O2" t="s">
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="P2" t="s">
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="R2" t="s">
+      <c r="E6" t="s">
         <v>18</v>
       </c>
-      <c r="S2" t="s">
+      <c r="F6" t="s">
         <v>19</v>
       </c>
-      <c r="T2" t="s">
+      <c r="G6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="H6" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="I6" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" t="s">
         <v>23</v>
       </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="L6" t="s">
         <v>24</v>
       </c>
-      <c r="K3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="M6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="O3" t="s">
-        <v>15</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" t="s">
-        <v>17</v>
-      </c>
-      <c r="R3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P4" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>15</v>
-      </c>
-      <c r="R4" t="s">
-        <v>25</v>
-      </c>
-      <c r="S4" t="s">
-        <v>17</v>
-      </c>
-      <c r="T4" t="s">
-        <v>26</v>
-      </c>
-      <c r="U4" t="s">
-        <v>19</v>
-      </c>
-      <c r="V4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" t="s">
-        <v>15</v>
-      </c>
-      <c r="N5" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" t="s">
-        <v>17</v>
-      </c>
-      <c r="P5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="N7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N7" t="s">
-        <v>25</v>
-      </c>
-      <c r="O7" t="s">
-        <v>17</v>
-      </c>
       <c r="P7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>19</v>
-      </c>
-      <c r="R7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K9" t="s">
-        <v>13</v>
-      </c>
-      <c r="L9" t="s">
-        <v>14</v>
-      </c>
-      <c r="M9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O9" t="s">
-        <v>17</v>
-      </c>
-      <c r="P9" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>19</v>
-      </c>
-      <c r="R9" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -904,12 +684,71 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="7800" yWindow="3180" windowWidth="25000" windowHeight="10000" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Sheet 1" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="Sheet 2" state="visible" r:id="rId5"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="36">
   <si>
     <t>IMEI</t>
   </si>
@@ -128,14 +133,30 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -155,13 +176,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -501,13 +534,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -521,7 +554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -535,7 +568,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -549,7 +582,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -563,7 +596,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -577,7 +610,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -627,7 +660,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -679,6 +712,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -686,13 +724,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -706,9 +747,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>353400090208922</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -720,7 +761,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -734,7 +775,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -750,5 +791,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>